--- a/Assignment_00/team3_project/Analysis/cleaning_survey.xlsx
+++ b/Assignment_00/team3_project/Analysis/cleaning_survey.xlsx
@@ -3248,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK12" t="n">
         <v>1</v>
